--- a/biology/Botanique/Costers_del_Segre/Costers_del_Segre.xlsx
+++ b/biology/Botanique/Costers_del_Segre/Costers_del_Segre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Costers Del Segre est un vin espagnol bénéficiant d'une D.O (Denominación de Origen) de Catalogne.
@@ -509,17 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Période antique
-Période médiévale
-Période moderne
-Période contemporaine</t>
-        </is>
-      </c>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,10 +549,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette DO compte un peu moins de 4000 hectares.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,14 +586,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orographie
-Géologie
-Climatologie</t>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages utilisés sont le grenache, le ull de llebre, le cabernet, le monastrell, le trepat, le samsô, le Pinot noir et la syrah.
+</t>
         </is>
       </c>
     </row>
@@ -600,113 +623,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vignoble</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation
-Cette DO compte un peu moins de 4000 hectares[1].
-Lieux-dits
-Encépagement
-Les cépages utilisés sont le grenache, le ull de llebre, le cabernet, le monastrell, le trepat, le samsô, le Pinot noir et la syrah.
-Méthodes culturales
-Rendements</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Costers_del_Segre</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Costers_del_Segre</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Vins</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Titre alcoométrique volumique minimal et maximal
-Vinification et élevage
-Terroir et vins
-Gastronomie, durée de garde et température de service
-Millésimes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Costers_del_Segre</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Costers_del_Segre</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Économie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Réglementation
-Commercialisation
-Structure des exploitations
-Listes des producteurs</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Costers_del_Segre</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Costers_del_Segre</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
